--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="325">
   <si>
     <t>文件名</t>
   </si>
@@ -254,9 +255,6 @@
     <t>﻿Compact.h</t>
   </si>
   <si>
-    <t>﻿ConnectRegion.h</t>
-  </si>
-  <si>
     <t>﻿ConnectRegionNew.h</t>
   </si>
   <si>
@@ -347,9 +345,6 @@
     <t>HoughCircle.h</t>
   </si>
   <si>
-    <t>HoughLine.h</t>
-  </si>
-  <si>
     <t>HoughRec.h</t>
   </si>
   <si>
@@ -432,9 +427,6 @@
   </si>
   <si>
     <t>RotateTable.h</t>
-  </si>
-  <si>
-    <t>﻿SalientImg.h</t>
   </si>
   <si>
     <t>SalientRegionDetect.h</t>
@@ -4978,13 +4970,33 @@
       </rPr>
       <t>以及所使用的旋转角</t>
     </r>
+  </si>
+  <si>
+    <t>﻿SalientImg.h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿ConnectRegion.h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoughLine.h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5019,6 +5031,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5040,7 +5060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5063,11 +5083,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5080,6 +5111,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5385,280 +5422,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="138.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="138.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="363" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5671,10 +5753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -5683,11 +5765,12 @@
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="80.75" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5698,8 +5781,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="219" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5707,13 +5793,16 @@
         <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="112.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5721,13 +5810,16 @@
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5735,13 +5827,16 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5749,13 +5844,16 @@
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5763,13 +5861,14 @@
         <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5777,13 +5876,16 @@
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5791,1108 +5893,1317 @@
         <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="150" thickBot="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="181.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="377.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="89.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="138.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="156" thickBot="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="220.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="225" thickBot="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="144" thickBot="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="169.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="169.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="264" thickBot="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="84" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="49.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="109.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="106.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="167.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="118.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="356.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="118.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="178.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="293.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="84" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="132.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="288" thickBot="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="279" thickBot="1" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="49.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="84" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="109.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="227.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="155.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="201.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="147" thickBot="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="187.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="322.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="104.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="149.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="213" thickBot="1" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="98.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="118.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="204" thickBot="1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="259.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="305.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -27,18 +27,12 @@
     <t>功能说明</t>
   </si>
   <si>
-    <t>CombineImage.h/cu</t>
-  </si>
-  <si>
     <t>融合图像（Combine Image）</t>
   </si>
   <si>
     <t>将若干幅图像融合成一幅图像。要求这些图像的 ROI 子区域的尺寸完全相</t>
   </si>
   <si>
-    <t>Complex. h</t>
-  </si>
-  <si>
     <t>复数类（Complex）</t>
   </si>
   <si>
@@ -54,36 +48,24 @@
     <t>根据给定的缩小倍数 N，将输入图像缩小，将其尺寸从width * height 变成 (width / N) * (height / N)</t>
   </si>
   <si>
-    <t>EdgeDetection.h/cu</t>
-  </si>
-  <si>
     <t>边缘检测（EdgeDetection）</t>
   </si>
   <si>
     <t>实现画出两种颜色的边界</t>
   </si>
   <si>
-    <t>FillUp.h/cu</t>
-  </si>
-  <si>
     <t>像素处理（FillUp）</t>
   </si>
   <si>
     <t>检查一个像素的邻域，若其邻域同时存在 l 像素和 v 像素，当 v 像素的个数大于等于某一值时，将所有的 l 像素置为v 像素。</t>
   </si>
   <si>
-    <t>Flip.h/cu</t>
-  </si>
-  <si>
     <t>图像翻转（Flip）</t>
   </si>
   <si>
     <t>实现图像的水平和竖直翻转。</t>
   </si>
   <si>
-    <t>FlutterBinarze.h/cu</t>
-  </si>
-  <si>
     <t>抖动二值化（FlutterBinarze）</t>
   </si>
   <si>
@@ -126,36 +108,24 @@
     <t>给定一幅图像，根据用户输入的阈值数组，取出每个阈值区间对应的图像，如阈值数组为如[0,50,100,150,200],则该算法输出5幅图像，第一幅保原图像的（0,50）灰度值，其余灰度值设为0，第二幅保留原图像的（50,100）灰度值，以此类推，最后一幅保留原图像的（200，255）灰度值。用户输入阈值时应注意，若您选定的阈值为50,100,150,200,则您输入的阈值数组应为[0,50,100,150,200]，前面加0，后面不加255。之所以这么处理，使阈值数组元素个数和输出图像函数个数一致。</t>
   </si>
   <si>
-    <t>ImageHide.h/cu</t>
-  </si>
-  <si>
     <t>图像隐藏（ImageHide）</t>
   </si>
   <si>
     <t>实现二值图隐藏于正常图片中（以数据最低位实现）。</t>
   </si>
   <si>
-    <t>ImageOverlay.h/cu</t>
-  </si>
-  <si>
     <t>图像叠加（ImageOverlay）</t>
   </si>
   <si>
     <t>将 n 幅输入图像叠加到一起，输出图像的灰度值等于所有输入图像对应点灰度值乘以相应权重值并求和。</t>
   </si>
   <si>
-    <t>ImageScaling.h/cu</t>
-  </si>
-  <si>
     <t>图像扩缩（ImageScaling）</t>
   </si>
   <si>
     <t>根据给定扩缩中心和扩缩系数，实现图像的扩大或缩小</t>
   </si>
   <si>
-    <t>DownSampleImage.h/cu</t>
-  </si>
-  <si>
     <t>拉伸图像（ImageStretch）</t>
   </si>
   <si>
@@ -171,9 +141,6 @@
     <t>将输入的灰度图像转成制定大小的文本，文本中用一个字符代表特定的灰度级。首先将原图缩放到和文本同样大小，然后按照灰度级对应找到文本，写入字符串中</t>
   </si>
   <si>
-    <t>InnerDigger.h/cu</t>
-  </si>
-  <si>
     <t>区域抠心（InnerDigger）</t>
   </si>
   <si>
@@ -216,12 +183,6 @@
     <t>在给定的图像范围内，将图像编程马赛克的样子（电视上常见的遮挡人脸的效果）。</t>
   </si>
   <si>
-    <t>Tattoo.h/cu</t>
-  </si>
-  <si>
-    <t>贴图（Tattoo）</t>
-  </si>
-  <si>
     <t>输入两幅图像，一幅为前景图，一幅为背景图，输出一幅图像：其中输出图像满足当前景图灰度值与指定透明像素相同时，则输出背景图对应的灰度值否则输出前景图灰度值。</t>
   </si>
   <si>
@@ -270,9 +231,6 @@
     <t>CovarianceMatrix.h</t>
   </si>
   <si>
-    <t>CurveConverter.h</t>
-  </si>
-  <si>
     <t>CurveFluctuation.h</t>
   </si>
   <si>
@@ -304,9 +262,6 @@
   </si>
   <si>
     <t>FeatureVecArray.h</t>
-  </si>
-  <si>
-    <t>﻿FeatureVecCalc.h</t>
   </si>
   <si>
     <t>FillCoor.h</t>
@@ -4989,6 +4944,94 @@
   </si>
   <si>
     <t>是否有文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombineImage.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeDetection.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complex. h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FillUp.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlutterBinarze.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageHide.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageOverlay.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageScaling.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownSampleImage.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnerDigger.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贴图（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tattoo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tattoo.h/cu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurveConverter.h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿FeatureVecCalc.h</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5424,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5438,7 +5481,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5455,13 +5498,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5469,13 +5512,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5483,13 +5526,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
@@ -5497,13 +5540,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5511,13 +5554,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5525,13 +5568,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5539,13 +5582,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
@@ -5553,13 +5596,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5567,13 +5610,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5581,13 +5624,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
@@ -5595,13 +5638,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5609,13 +5652,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5623,13 +5666,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5637,13 +5680,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5651,13 +5694,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="138.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5665,13 +5708,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5679,13 +5722,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="138.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5693,13 +5736,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5707,13 +5750,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="121.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -5721,13 +5764,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.2">
@@ -5735,13 +5778,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5755,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -5770,7 +5813,7 @@
   <sheetData>
     <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5782,7 +5825,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5790,13 +5833,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -5807,13 +5850,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -5824,13 +5867,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -5841,13 +5884,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -5858,13 +5901,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -5873,13 +5916,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -5890,13 +5933,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -5905,13 +5948,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -5920,13 +5963,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -5937,13 +5980,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -5952,13 +5995,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -5969,13 +6012,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -5986,13 +6029,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -6001,10 +6044,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6014,13 +6057,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -6029,13 +6072,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -6044,13 +6087,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -6061,13 +6104,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -6078,13 +6121,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -6095,13 +6138,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -6112,13 +6155,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -6129,13 +6172,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -6144,13 +6187,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -6159,13 +6202,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -6174,10 +6217,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -6187,13 +6230,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -6202,13 +6245,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -6217,13 +6260,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -6234,13 +6277,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -6251,13 +6294,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -6268,13 +6311,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -6285,13 +6328,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -6302,13 +6345,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -6319,13 +6362,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -6336,13 +6379,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -6351,13 +6394,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -6368,13 +6411,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -6383,13 +6426,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -6400,13 +6443,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -6417,13 +6460,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -6434,13 +6477,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -6449,13 +6492,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -6466,13 +6509,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -6483,13 +6526,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -6498,13 +6541,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -6513,13 +6556,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -6528,13 +6571,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -6543,13 +6586,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -6558,13 +6601,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -6573,13 +6616,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -6590,13 +6633,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -6607,13 +6650,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -6624,13 +6667,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E54" s="2"/>
     </row>
@@ -6639,13 +6682,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E55" s="2"/>
     </row>
@@ -6654,13 +6697,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -6671,13 +6714,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E57" s="2"/>
     </row>
@@ -6686,13 +6729,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E58" s="2"/>
     </row>
@@ -6701,13 +6744,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -6716,13 +6759,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -6731,13 +6774,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -6748,13 +6791,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -6765,13 +6808,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -6782,13 +6825,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E64" s="2"/>
     </row>
@@ -6797,13 +6840,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -6812,13 +6855,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E66" s="2"/>
     </row>
@@ -6827,13 +6870,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -6844,13 +6887,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -6859,13 +6902,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -6876,13 +6919,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -6893,13 +6936,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E71" s="2"/>
     </row>
@@ -6908,13 +6951,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -6925,13 +6968,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -6942,13 +6985,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -6959,13 +7002,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E75" s="2"/>
     </row>
@@ -6974,13 +7017,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E76" s="2"/>
     </row>
@@ -6989,13 +7032,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -7006,13 +7049,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -7023,13 +7066,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -7040,13 +7083,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E80" s="2"/>
     </row>
@@ -7055,13 +7098,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
@@ -7072,13 +7115,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E82" s="2"/>
     </row>
@@ -7087,13 +7130,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
@@ -7104,13 +7147,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -7119,13 +7162,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E85" s="2"/>
     </row>
@@ -7134,13 +7177,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
@@ -7151,13 +7194,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
@@ -7192,14 +7235,14 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -5467,7 +5467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5798,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" thickBottom="1" x14ac:dyDescent="0.2"/>
